--- a/Results/Reliability/reliabilitySelectConditions.xlsx
+++ b/Results/Reliability/reliabilitySelectConditions.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90abd</t>
+          <t>abd90</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90abd</t>
+          <t>abd90</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90abd</t>
+          <t>abd90</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90abd</t>
+          <t>abd90</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90abd</t>
+          <t>abd90</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90abd</t>
+          <t>abd90</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>90abd</t>
+          <t>abd90</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>90abd</t>
+          <t>abd90</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0abd</t>
+          <t>abd0</t>
         </is>
       </c>
     </row>
